--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.112374333333332</v>
+        <v>17.95625533333333</v>
       </c>
       <c r="H2">
-        <v>18.337123</v>
+        <v>53.86876599999999</v>
       </c>
       <c r="I2">
-        <v>0.02125075796073208</v>
+        <v>0.05960074617816258</v>
       </c>
       <c r="J2">
-        <v>0.02125075796073207</v>
+        <v>0.05960074617816258</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.08030833333333</v>
+        <v>13.17295566666667</v>
       </c>
       <c r="N2">
-        <v>42.240925</v>
+        <v>39.518867</v>
       </c>
       <c r="O2">
-        <v>0.1556474304006564</v>
+        <v>0.133784132206724</v>
       </c>
       <c r="P2">
-        <v>0.1556474304006564</v>
+        <v>0.133784132206724</v>
       </c>
       <c r="Q2">
-        <v>86.0641152620861</v>
+        <v>236.5369554453469</v>
       </c>
       <c r="R2">
-        <v>774.577037358775</v>
+        <v>2128.832599008122</v>
       </c>
       <c r="S2">
-        <v>0.003307625870654241</v>
+        <v>0.007973634106318702</v>
       </c>
       <c r="T2">
-        <v>0.003307625870654241</v>
+        <v>0.007973634106318704</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.112374333333332</v>
+        <v>17.95625533333333</v>
       </c>
       <c r="H3">
-        <v>18.337123</v>
+        <v>53.86876599999999</v>
       </c>
       <c r="I3">
-        <v>0.02125075796073208</v>
+        <v>0.05960074617816258</v>
       </c>
       <c r="J3">
-        <v>0.02125075796073207</v>
+        <v>0.05960074617816258</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>129.459667</v>
       </c>
       <c r="O3">
-        <v>0.4770270657916382</v>
+        <v>0.4382627974978752</v>
       </c>
       <c r="P3">
-        <v>0.4770270657916382</v>
+        <v>0.4382627974978752</v>
       </c>
       <c r="Q3">
-        <v>263.7686485908934</v>
+        <v>774.8702786734357</v>
       </c>
       <c r="R3">
-        <v>2373.917837318041</v>
+        <v>6973.832508060921</v>
       </c>
       <c r="S3">
-        <v>0.01013718671585632</v>
+        <v>0.02612078975300233</v>
       </c>
       <c r="T3">
-        <v>0.01013718671585632</v>
+        <v>0.02612078975300233</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.112374333333332</v>
+        <v>17.95625533333333</v>
       </c>
       <c r="H4">
-        <v>18.337123</v>
+        <v>53.86876599999999</v>
       </c>
       <c r="I4">
-        <v>0.02125075796073208</v>
+        <v>0.05960074617816258</v>
       </c>
       <c r="J4">
-        <v>0.02125075796073207</v>
+        <v>0.05960074617816258</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.31989366666667</v>
+        <v>21.06166566666667</v>
       </c>
       <c r="N4">
-        <v>33.959681</v>
+        <v>63.184997</v>
       </c>
       <c r="O4">
-        <v>0.1251330808895874</v>
+        <v>0.2139016281041017</v>
       </c>
       <c r="P4">
-        <v>0.1251330808895874</v>
+        <v>0.2139016281041017</v>
       </c>
       <c r="Q4">
-        <v>69.19142750419589</v>
+        <v>378.1886464559668</v>
       </c>
       <c r="R4">
-        <v>622.722847537763</v>
+        <v>3403.697818103702</v>
       </c>
       <c r="S4">
-        <v>0.00265917281486533</v>
+        <v>0.0127486966437283</v>
       </c>
       <c r="T4">
-        <v>0.00265917281486533</v>
+        <v>0.0127486966437283</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.112374333333332</v>
+        <v>17.95625533333333</v>
       </c>
       <c r="H5">
-        <v>18.337123</v>
+        <v>53.86876599999999</v>
       </c>
       <c r="I5">
-        <v>0.02125075796073208</v>
+        <v>0.05960074617816258</v>
       </c>
       <c r="J5">
-        <v>0.02125075796073207</v>
+        <v>0.05960074617816258</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.909414</v>
+        <v>21.076417</v>
       </c>
       <c r="N5">
-        <v>65.72824199999999</v>
+        <v>63.229251</v>
       </c>
       <c r="O5">
-        <v>0.2421924229181179</v>
+        <v>0.214051442191299</v>
       </c>
       <c r="P5">
-        <v>0.242192422918118</v>
+        <v>0.214051442191299</v>
       </c>
       <c r="Q5">
-        <v>133.918539791974</v>
+        <v>378.4535251638073</v>
       </c>
       <c r="R5">
-        <v>1205.266858127766</v>
+        <v>3406.081726474266</v>
       </c>
       <c r="S5">
-        <v>0.005146772559356185</v>
+        <v>0.01275762567511326</v>
       </c>
       <c r="T5">
-        <v>0.005146772559356184</v>
+        <v>0.01275762567511326</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>263.0904693333333</v>
       </c>
       <c r="H6">
-        <v>789.2714079999998</v>
+        <v>789.271408</v>
       </c>
       <c r="I6">
-        <v>0.9146808720612395</v>
+        <v>0.8732549183303921</v>
       </c>
       <c r="J6">
-        <v>0.9146808720612394</v>
+        <v>0.8732549183303921</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.08030833333333</v>
+        <v>13.17295566666667</v>
       </c>
       <c r="N6">
-        <v>42.240925</v>
+        <v>39.518867</v>
       </c>
       <c r="O6">
-        <v>0.1556474304006564</v>
+        <v>0.133784132206724</v>
       </c>
       <c r="P6">
-        <v>0.1556474304006564</v>
+        <v>0.133784132206724</v>
       </c>
       <c r="Q6">
-        <v>3704.394927774711</v>
+        <v>3465.679088850526</v>
       </c>
       <c r="R6">
-        <v>33339.55434997239</v>
+        <v>31191.11179965473</v>
       </c>
       <c r="S6">
-        <v>0.1423677273729635</v>
+        <v>0.1168276514440851</v>
       </c>
       <c r="T6">
-        <v>0.1423677273729635</v>
+        <v>0.1168276514440851</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>263.0904693333333</v>
       </c>
       <c r="H7">
-        <v>789.2714079999998</v>
+        <v>789.271408</v>
       </c>
       <c r="I7">
-        <v>0.9146808720612395</v>
+        <v>0.8732549183303921</v>
       </c>
       <c r="J7">
-        <v>0.9146808720612394</v>
+        <v>0.8732549183303921</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>129.459667</v>
       </c>
       <c r="O7">
-        <v>0.4770270657916382</v>
+        <v>0.4382627974978752</v>
       </c>
       <c r="P7">
-        <v>0.4770270657916382</v>
+        <v>0.4382627974978752</v>
       </c>
       <c r="Q7">
         <v>11353.20151692235</v>
@@ -883,10 +883,10 @@
         <v>102178.8136523011</v>
       </c>
       <c r="S7">
-        <v>0.4363275325351099</v>
+        <v>0.3827151434362562</v>
       </c>
       <c r="T7">
-        <v>0.4363275325351099</v>
+        <v>0.3827151434362562</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>263.0904693333333</v>
       </c>
       <c r="H8">
-        <v>789.2714079999998</v>
+        <v>789.271408</v>
       </c>
       <c r="I8">
-        <v>0.9146808720612395</v>
+        <v>0.8732549183303921</v>
       </c>
       <c r="J8">
-        <v>0.9146808720612394</v>
+        <v>0.8732549183303921</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.31989366666667</v>
+        <v>21.06166566666667</v>
       </c>
       <c r="N8">
-        <v>33.959681</v>
+        <v>63.184997</v>
       </c>
       <c r="O8">
-        <v>0.1251330808895874</v>
+        <v>0.2139016281041017</v>
       </c>
       <c r="P8">
-        <v>0.1251330808895874</v>
+        <v>0.2139016281041017</v>
       </c>
       <c r="Q8">
-        <v>2978.15613756676</v>
+        <v>5541.123505185085</v>
       </c>
       <c r="R8">
-        <v>26803.40523810084</v>
+        <v>49870.11154666577</v>
       </c>
       <c r="S8">
-        <v>0.1144568355517974</v>
+        <v>0.1867906487807853</v>
       </c>
       <c r="T8">
-        <v>0.1144568355517974</v>
+        <v>0.1867906487807853</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>263.0904693333333</v>
       </c>
       <c r="H9">
-        <v>789.2714079999998</v>
+        <v>789.271408</v>
       </c>
       <c r="I9">
-        <v>0.9146808720612395</v>
+        <v>0.8732549183303921</v>
       </c>
       <c r="J9">
-        <v>0.9146808720612394</v>
+        <v>0.8732549183303921</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.909414</v>
+        <v>21.076417</v>
       </c>
       <c r="N9">
-        <v>65.72824199999999</v>
+        <v>63.229251</v>
       </c>
       <c r="O9">
-        <v>0.2421924229181179</v>
+        <v>0.214051442191299</v>
       </c>
       <c r="P9">
-        <v>0.242192422918118</v>
+        <v>0.214051442191299</v>
       </c>
       <c r="Q9">
-        <v>5764.158012078302</v>
+        <v>5545.004440395046</v>
       </c>
       <c r="R9">
-        <v>51877.42210870472</v>
+        <v>49905.03996355541</v>
       </c>
       <c r="S9">
-        <v>0.2215287766013686</v>
+        <v>0.1869214746692655</v>
       </c>
       <c r="T9">
-        <v>0.2215287766013686</v>
+        <v>0.1869214746692655</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.110527</v>
+        <v>13.13303333333333</v>
       </c>
       <c r="H10">
-        <v>30.331581</v>
+        <v>39.3991</v>
       </c>
       <c r="I10">
-        <v>0.0351510477623638</v>
+        <v>0.04359141545488614</v>
       </c>
       <c r="J10">
-        <v>0.0351510477623638</v>
+        <v>0.04359141545488615</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.08030833333333</v>
+        <v>13.17295566666667</v>
       </c>
       <c r="N10">
-        <v>42.240925</v>
+        <v>39.518867</v>
       </c>
       <c r="O10">
-        <v>0.1556474304006564</v>
+        <v>0.133784132206724</v>
       </c>
       <c r="P10">
-        <v>0.1556474304006564</v>
+        <v>0.133784132206724</v>
       </c>
       <c r="Q10">
-        <v>142.3593375724917</v>
+        <v>173.0008658688555</v>
       </c>
       <c r="R10">
-        <v>1281.234038152425</v>
+        <v>1557.0077928197</v>
       </c>
       <c r="S10">
-        <v>0.005471170260102669</v>
+        <v>0.005831839688294718</v>
       </c>
       <c r="T10">
-        <v>0.005471170260102669</v>
+        <v>0.005831839688294721</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.110527</v>
+        <v>13.13303333333333</v>
       </c>
       <c r="H11">
-        <v>30.331581</v>
+        <v>39.3991</v>
       </c>
       <c r="I11">
-        <v>0.0351510477623638</v>
+        <v>0.04359141545488614</v>
       </c>
       <c r="J11">
-        <v>0.0351510477623638</v>
+        <v>0.04359141545488615</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>129.459667</v>
       </c>
       <c r="O11">
-        <v>0.4770270657916382</v>
+        <v>0.4382627974978752</v>
       </c>
       <c r="P11">
-        <v>0.4770270657916382</v>
+        <v>0.4382627974978752</v>
       </c>
       <c r="Q11">
-        <v>436.3018195381696</v>
+        <v>566.732707344411</v>
       </c>
       <c r="R11">
-        <v>3926.716375843527</v>
+        <v>5100.594366099699</v>
       </c>
       <c r="S11">
-        <v>0.01676800117358213</v>
+        <v>0.01910449568415051</v>
       </c>
       <c r="T11">
-        <v>0.01676800117358214</v>
+        <v>0.01910449568415052</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.110527</v>
+        <v>13.13303333333333</v>
       </c>
       <c r="H12">
-        <v>30.331581</v>
+        <v>39.3991</v>
       </c>
       <c r="I12">
-        <v>0.0351510477623638</v>
+        <v>0.04359141545488614</v>
       </c>
       <c r="J12">
-        <v>0.0351510477623638</v>
+        <v>0.04359141545488615</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.31989366666667</v>
+        <v>21.06166566666667</v>
       </c>
       <c r="N12">
-        <v>33.959681</v>
+        <v>63.184997</v>
       </c>
       <c r="O12">
-        <v>0.1251330808895874</v>
+        <v>0.2139016281041017</v>
       </c>
       <c r="P12">
-        <v>0.1251330808895874</v>
+        <v>0.2139016281041017</v>
       </c>
       <c r="Q12">
-        <v>114.4500905539623</v>
+        <v>276.6035572558555</v>
       </c>
       <c r="R12">
-        <v>1030.050814985661</v>
+        <v>2489.4320153027</v>
       </c>
       <c r="S12">
-        <v>0.004398558903001619</v>
+        <v>0.00932427473716245</v>
       </c>
       <c r="T12">
-        <v>0.00439855890300162</v>
+        <v>0.00932427473716245</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.110527</v>
+        <v>13.13303333333333</v>
       </c>
       <c r="H13">
-        <v>30.331581</v>
+        <v>39.3991</v>
       </c>
       <c r="I13">
-        <v>0.0351510477623638</v>
+        <v>0.04359141545488614</v>
       </c>
       <c r="J13">
-        <v>0.0351510477623638</v>
+        <v>0.04359141545488615</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.909414</v>
+        <v>21.076417</v>
       </c>
       <c r="N13">
-        <v>65.72824199999999</v>
+        <v>63.229251</v>
       </c>
       <c r="O13">
-        <v>0.2421924229181179</v>
+        <v>0.214051442191299</v>
       </c>
       <c r="P13">
-        <v>0.242192422918118</v>
+        <v>0.214051442191299</v>
       </c>
       <c r="Q13">
-        <v>221.515721801178</v>
+        <v>276.7972870082334</v>
       </c>
       <c r="R13">
-        <v>1993.641496210602</v>
+        <v>2491.1755830741</v>
       </c>
       <c r="S13">
-        <v>0.008513317425677376</v>
+        <v>0.009330805345278461</v>
       </c>
       <c r="T13">
-        <v>0.008513317425677378</v>
+        <v>0.009330805345278463</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.317515</v>
+        <v>7.095921999999999</v>
       </c>
       <c r="H14">
-        <v>24.952545</v>
+        <v>21.287766</v>
       </c>
       <c r="I14">
-        <v>0.02891732221566466</v>
+        <v>0.02355292003655921</v>
       </c>
       <c r="J14">
-        <v>0.02891732221566466</v>
+        <v>0.02355292003655921</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.08030833333333</v>
+        <v>13.17295566666667</v>
       </c>
       <c r="N14">
-        <v>42.240925</v>
+        <v>39.518867</v>
       </c>
       <c r="O14">
-        <v>0.1556474304006564</v>
+        <v>0.133784132206724</v>
       </c>
       <c r="P14">
-        <v>0.1556474304006564</v>
+        <v>0.133784132206724</v>
       </c>
       <c r="Q14">
-        <v>117.113175767125</v>
+        <v>93.47426592012465</v>
       </c>
       <c r="R14">
-        <v>1054.018581904125</v>
+        <v>841.2683932811219</v>
       </c>
       <c r="S14">
-        <v>0.004500906896936022</v>
+        <v>0.003151006968025435</v>
       </c>
       <c r="T14">
-        <v>0.004500906896936021</v>
+        <v>0.003151006968025436</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.317515</v>
+        <v>7.095921999999999</v>
       </c>
       <c r="H15">
-        <v>24.952545</v>
+        <v>21.287766</v>
       </c>
       <c r="I15">
-        <v>0.02891732221566466</v>
+        <v>0.02355292003655921</v>
       </c>
       <c r="J15">
-        <v>0.02891732221566466</v>
+        <v>0.02355292003655921</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>129.459667</v>
       </c>
       <c r="O15">
-        <v>0.4770270657916382</v>
+        <v>0.4382627974978752</v>
       </c>
       <c r="P15">
-        <v>0.4770270657916382</v>
+        <v>0.4382627974978752</v>
       </c>
       <c r="Q15">
-        <v>358.927574055835</v>
+        <v>306.2118997259913</v>
       </c>
       <c r="R15">
-        <v>3230.348166502515</v>
+        <v>2755.907097533922</v>
       </c>
       <c r="S15">
-        <v>0.01379434536708987</v>
+        <v>0.01032236862446619</v>
       </c>
       <c r="T15">
-        <v>0.01379434536708987</v>
+        <v>0.01032236862446619</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.317515</v>
+        <v>7.095921999999999</v>
       </c>
       <c r="H16">
-        <v>24.952545</v>
+        <v>21.287766</v>
       </c>
       <c r="I16">
-        <v>0.02891732221566466</v>
+        <v>0.02355292003655921</v>
       </c>
       <c r="J16">
-        <v>0.02891732221566466</v>
+        <v>0.02355292003655921</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.31989366666667</v>
+        <v>21.06166566666667</v>
       </c>
       <c r="N16">
-        <v>33.959681</v>
+        <v>63.184997</v>
       </c>
       <c r="O16">
-        <v>0.1251330808895874</v>
+        <v>0.2139016281041017</v>
       </c>
       <c r="P16">
-        <v>0.1251330808895874</v>
+        <v>0.2139016281041017</v>
       </c>
       <c r="Q16">
-        <v>94.15338537090501</v>
+        <v>149.4519367607446</v>
       </c>
       <c r="R16">
-        <v>847.3804683381451</v>
+        <v>1345.067430846702</v>
       </c>
       <c r="S16">
-        <v>0.003618513619923029</v>
+        <v>0.005038007942425734</v>
       </c>
       <c r="T16">
-        <v>0.003618513619923029</v>
+        <v>0.005038007942425734</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.317515</v>
+        <v>7.095921999999999</v>
       </c>
       <c r="H17">
-        <v>24.952545</v>
+        <v>21.287766</v>
       </c>
       <c r="I17">
-        <v>0.02891732221566466</v>
+        <v>0.02355292003655921</v>
       </c>
       <c r="J17">
-        <v>0.02891732221566466</v>
+        <v>0.02355292003655921</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.909414</v>
+        <v>21.076417</v>
       </c>
       <c r="N17">
-        <v>65.72824199999999</v>
+        <v>63.229251</v>
       </c>
       <c r="O17">
-        <v>0.2421924229181179</v>
+        <v>0.214051442191299</v>
       </c>
       <c r="P17">
-        <v>0.242192422918118</v>
+        <v>0.214051442191299</v>
       </c>
       <c r="Q17">
-        <v>182.23187958621</v>
+        <v>149.556611071474</v>
       </c>
       <c r="R17">
-        <v>1640.08691627589</v>
+        <v>1346.009499643266</v>
       </c>
       <c r="S17">
-        <v>0.007003556331715743</v>
+        <v>0.005041536501641842</v>
       </c>
       <c r="T17">
-        <v>0.007003556331715743</v>
+        <v>0.005041536501641842</v>
       </c>
     </row>
   </sheetData>
